--- a/GameDesigner/GameCore~/Template/GameConfig.xlsx
+++ b/GameDesigner/GameCore~/Template/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Type" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -188,6 +188,27 @@
   </si>
   <si>
     <t>stringList</t>
+  </si>
+  <si>
+    <t>vector2</t>
+  </si>
+  <si>
+    <t>x,y,z 使用,区分</t>
+  </si>
+  <si>
+    <t>vector3</t>
+  </si>
+  <si>
+    <t>vector4</t>
+  </si>
+  <si>
+    <t>quaternion</t>
+  </si>
+  <si>
+    <t>x,y,z,w 使用,区分</t>
+  </si>
+  <si>
+    <t>rect</t>
   </si>
   <si>
     <t>Navigation</t>
@@ -896,11 +917,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -913,6 +931,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,10 +1263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1252,541 +1276,596 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>100</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>101</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>102</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>103</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>104</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>105</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>106</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>107</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>108</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>109</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>110</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>111</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>112</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>113</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>114</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>200</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>201</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>202</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>203</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>204</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>205</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>206</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>207</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>208</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>209</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>210</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>211</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>212</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>213</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>214</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>23</v>
+      <c r="C50" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5">
+        <v>300</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5">
+        <v>301</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5">
+        <v>302</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5">
+        <v>303</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5">
+        <v>304</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1879,7 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1818,30 +1897,30 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>53</v>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1850,16 +1929,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1867,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1876,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1884,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1893,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1901,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1910,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1918,7 +1997,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1927,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1965,23 +2044,23 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1990,13 +2069,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2004,13 +2083,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2018,13 +2097,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesigner/GameCore~/Template/GameConfig.xlsx
+++ b/GameDesigner/GameCore~/Template/GameConfig.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -100,7 +100,7 @@
     <t>boolArray</t>
   </si>
   <si>
-    <t>数组分隔为;</t>
+    <t>数组分隔为;或ALT+回车</t>
   </si>
   <si>
     <t>byteArray</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>dateTimeArray</t>
+  </si>
+  <si>
+    <t>数组分隔为;或ALT+回车 写法: 2024-11-08 或 2024-11-08 14:30:00 或 2024/11/08 或 2024/11/08 14:30:00</t>
   </si>
   <si>
     <t>stringArray</t>
@@ -917,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,19 +928,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1265,24 +1259,25 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="100.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1290,10 +1285,10 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1301,10 +1296,10 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1312,10 +1307,10 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1323,10 +1318,10 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1334,10 +1329,10 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1345,10 +1340,10 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1356,10 +1351,10 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1367,10 +1362,10 @@
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1378,10 +1373,10 @@
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1389,10 +1384,10 @@
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1400,10 +1395,10 @@
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1411,10 +1406,10 @@
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1422,10 +1417,10 @@
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1433,10 +1428,10 @@
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1444,10 +1439,10 @@
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1455,10 +1450,10 @@
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1466,26 +1461,32 @@
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3">
         <v>100</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1493,10 +1494,10 @@
       <c r="A21" s="3">
         <v>101</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1504,10 +1505,10 @@
       <c r="A22" s="3">
         <v>102</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1515,10 +1516,10 @@
       <c r="A23" s="3">
         <v>103</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1526,10 +1527,10 @@
       <c r="A24" s="3">
         <v>104</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1537,10 +1538,10 @@
       <c r="A25" s="3">
         <v>105</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1548,10 +1549,10 @@
       <c r="A26" s="3">
         <v>106</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1559,10 +1560,10 @@
       <c r="A27" s="3">
         <v>107</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1570,10 +1571,10 @@
       <c r="A28" s="3">
         <v>108</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1581,10 +1582,10 @@
       <c r="A29" s="3">
         <v>109</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1592,10 +1593,10 @@
       <c r="A30" s="3">
         <v>110</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1603,10 +1604,10 @@
       <c r="A31" s="3">
         <v>111</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1614,10 +1615,10 @@
       <c r="A32" s="3">
         <v>112</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1625,37 +1626,43 @@
       <c r="A33" s="3">
         <v>113</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>23</v>
+      <c r="C33" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3">
         <v>114</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3">
         <v>200</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1663,10 +1670,10 @@
       <c r="A37" s="3">
         <v>201</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1674,10 +1681,10 @@
       <c r="A38" s="3">
         <v>202</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1685,10 +1692,10 @@
       <c r="A39" s="3">
         <v>203</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1696,10 +1703,10 @@
       <c r="A40" s="3">
         <v>204</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1707,10 +1714,10 @@
       <c r="A41" s="3">
         <v>205</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1718,10 +1725,10 @@
       <c r="A42" s="3">
         <v>206</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1729,10 +1736,10 @@
       <c r="A43" s="3">
         <v>207</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1740,10 +1747,10 @@
       <c r="A44" s="3">
         <v>208</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1751,10 +1758,10 @@
       <c r="A45" s="3">
         <v>209</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1762,10 +1769,10 @@
       <c r="A46" s="3">
         <v>210</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1773,10 +1780,10 @@
       <c r="A47" s="3">
         <v>211</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1784,10 +1791,10 @@
       <c r="A48" s="3">
         <v>212</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1795,77 +1802,88 @@
       <c r="A49" s="3">
         <v>213</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>23</v>
+      <c r="B49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3">
         <v>214</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>23</v>
+      <c r="B50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>300</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="C52" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>301</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>302</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>54</v>
+      <c r="B54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>303</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="6" t="s">
+      <c r="B55" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="C55" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>304</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1898,13 +1916,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -1929,16 +1947,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1946,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1955,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1963,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1972,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1980,7 +1998,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1989,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1997,7 +2015,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2006,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2044,10 +2062,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -2069,13 +2087,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2083,13 +2101,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2097,13 +2115,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesigner/GameCore~/Template/GameConfig.xlsx
+++ b/GameDesigner/GameCore~/Template/GameConfig.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>rect</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>r,g,b,a 使用,区分</t>
+  </si>
+  <si>
+    <t>color32</t>
   </si>
   <si>
     <t>Navigation</t>
@@ -1257,10 +1266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1884,6 +1893,28 @@
       </c>
       <c r="C56" s="3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3">
+        <v>305</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3">
+        <v>306</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1916,13 +1947,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -1947,16 +1978,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1964,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1973,7 +2004,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1981,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1990,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1998,7 +2029,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2007,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2015,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2024,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2062,10 +2093,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
@@ -2087,13 +2118,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2101,13 +2132,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2115,13 +2146,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
